--- a/EVcharging/xls/test data1.xlsx
+++ b/EVcharging/xls/test data1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="12570" windowHeight="3750"/>
   </bookViews>
   <sheets>
     <sheet name="Input1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Output" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:E10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Customer Id</t>
   </si>
@@ -74,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,52 +97,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,44 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -202,38 +195,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +440,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,13 +467,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,7 +486,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,7 +510,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,179 +540,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,11 +697,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1026,11 +1022,11 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.5416666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
@@ -1057,7 +1053,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
@@ -1075,7 +1071,7 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
@@ -1093,7 +1089,7 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
@@ -1111,7 +1107,7 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
@@ -1129,7 +1125,7 @@
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
@@ -1147,7 +1143,7 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
@@ -1165,7 +1161,7 @@
       <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
@@ -1183,7 +1179,7 @@
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
@@ -1201,7 +1197,7 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1219,7 +1215,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
     <col min="2" max="5" width="9" style="1"/>
@@ -1227,17 +1223,13 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
@@ -1246,10 +1238,7 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
@@ -1258,10 +1247,7 @@
       <c r="B3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
@@ -1270,10 +1256,7 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
@@ -1282,22 +1265,15 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1310,11 +1286,11 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="18.1833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.1833333333333" style="1" customWidth="1"/>
@@ -1460,10 +1436,10 @@
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
